--- a/data/crawley_suburb_properties.xlsx
+++ b/data/crawley_suburb_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluec\DataHomework\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100AC065-4535-4CD7-8126-088AF9F2DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386E859-DF90-4BC6-8355-C2496E2820C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5280" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="-8940" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crawley_suburb_properties" sheetId="1" r:id="rId1"/>
@@ -1431,9 +1431,6 @@
     <t>$167pw</t>
   </si>
   <si>
-    <t>55 Fairway Crawley, WA 6009</t>
-  </si>
-  <si>
     <t>$230pw</t>
   </si>
   <si>
@@ -1501,6 +1498,9 @@
   </si>
   <si>
     <t>full_address</t>
+  </si>
+  <si>
+    <t>car space</t>
   </si>
 </sst>
 </file>
@@ -2350,37 +2350,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E301"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" t="s">
         <v>484</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>485</v>
       </c>
-      <c r="D1" t="s">
-        <v>486</v>
-      </c>
       <c r="E1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2398,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -2419,15 +2419,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D2">
         <v>6009</v>
@@ -2473,15 +2473,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D3">
         <v>6009</v>
@@ -2524,15 +2524,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D4">
         <v>6009</v>
@@ -2578,15 +2578,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D5">
         <v>6009</v>
@@ -2632,15 +2632,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D6">
         <v>6009</v>
@@ -2680,15 +2680,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D7">
         <v>6009</v>
@@ -2719,7 +2719,7 @@
         <v>1012</v>
       </c>
       <c r="O7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P7" s="2">
         <v>44044</v>
@@ -2728,15 +2728,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D8">
         <v>6009</v>
@@ -2770,7 +2770,7 @@
         <v>1964</v>
       </c>
       <c r="O8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P8" s="2">
         <v>43800</v>
@@ -2779,15 +2779,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D9">
         <v>6009</v>
@@ -2827,15 +2827,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D10">
         <v>6009</v>
@@ -2881,15 +2881,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D11">
         <v>6009</v>
@@ -2932,15 +2932,15 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D12">
         <v>6009</v>
@@ -2986,15 +2986,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D13">
         <v>6009</v>
@@ -3040,15 +3040,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D14">
         <v>6009</v>
@@ -3088,15 +3088,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D15">
         <v>6009</v>
@@ -3142,15 +3142,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D16">
         <v>6009</v>
@@ -3193,15 +3193,15 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D17">
         <v>6009</v>
@@ -3241,15 +3241,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D18">
         <v>6009</v>
@@ -3295,15 +3295,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D19">
         <v>6009</v>
@@ -3346,15 +3346,15 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D20">
         <v>6009</v>
@@ -3400,15 +3400,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D21">
         <v>6009</v>
@@ -3451,15 +3451,15 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D22">
         <v>6009</v>
@@ -3490,15 +3490,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D23">
         <v>6009</v>
@@ -3535,15 +3535,15 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D24">
         <v>6009</v>
@@ -3574,15 +3574,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D25">
         <v>6009</v>
@@ -3625,15 +3625,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D26">
         <v>6009</v>
@@ -3667,7 +3667,7 @@
         <v>1939</v>
       </c>
       <c r="O26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P26" s="2">
         <v>42614</v>
@@ -3676,15 +3676,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D27">
         <v>6009</v>
@@ -3727,15 +3727,15 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D28">
         <v>6009</v>
@@ -3775,15 +3775,15 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D29">
         <v>6009</v>
@@ -3826,15 +3826,15 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D30">
         <v>6009</v>
@@ -3868,15 +3868,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D31">
         <v>6009</v>
@@ -3919,15 +3919,15 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D32">
         <v>6009</v>
@@ -3970,15 +3970,15 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D33">
         <v>6009</v>
@@ -4021,15 +4021,15 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D34">
         <v>6009</v>
@@ -4072,15 +4072,15 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D35">
         <v>6009</v>
@@ -4117,15 +4117,15 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D36">
         <v>6009</v>
@@ -4168,15 +4168,15 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D37">
         <v>6009</v>
@@ -4213,15 +4213,15 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D38">
         <v>6009</v>
@@ -4264,15 +4264,15 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D39">
         <v>6009</v>
@@ -4309,15 +4309,15 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D40">
         <v>6009</v>
@@ -4360,15 +4360,15 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D41">
         <v>6009</v>
@@ -4411,15 +4411,15 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D42">
         <v>6009</v>
@@ -4456,15 +4456,15 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D43">
         <v>6009</v>
@@ -4501,15 +4501,15 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D44">
         <v>6009</v>
@@ -4543,15 +4543,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D45">
         <v>6009</v>
@@ -4597,15 +4597,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D46">
         <v>6009</v>
@@ -4639,15 +4639,15 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D47">
         <v>6009</v>
@@ -4684,15 +4684,15 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D48">
         <v>6009</v>
@@ -4732,15 +4732,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D49">
         <v>6009</v>
@@ -4780,15 +4780,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D50">
         <v>6009</v>
@@ -4834,15 +4834,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51">
         <v>6009</v>
@@ -4888,15 +4888,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D52">
         <v>6009</v>
@@ -4939,15 +4939,15 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D53">
         <v>6009</v>
@@ -4984,15 +4984,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D54">
         <v>6009</v>
@@ -5038,15 +5038,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D55">
         <v>6009</v>
@@ -5077,15 +5077,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D56">
         <v>6009</v>
@@ -5131,15 +5131,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D57">
         <v>6009</v>
@@ -5179,15 +5179,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D58">
         <v>6009</v>
@@ -5227,15 +5227,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D59">
         <v>6009</v>
@@ -5281,15 +5281,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D60">
         <v>6009</v>
@@ -5332,15 +5332,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D61">
         <v>6009</v>
@@ -5380,15 +5380,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D62">
         <v>6009</v>
@@ -5434,15 +5434,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D63">
         <v>6009</v>
@@ -5485,15 +5485,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D64">
         <v>6009</v>
@@ -5539,15 +5539,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D65">
         <v>6009</v>
@@ -5593,15 +5593,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D66">
         <v>6009</v>
@@ -5647,15 +5647,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D67">
         <v>6009</v>
@@ -5701,15 +5701,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D68">
         <v>6009</v>
@@ -5755,15 +5755,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D69">
         <v>6009</v>
@@ -5806,15 +5806,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D70">
         <v>6009</v>
@@ -5854,15 +5854,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D71">
         <v>6009</v>
@@ -5902,15 +5902,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D72">
         <v>6009</v>
@@ -5950,15 +5950,15 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D73">
         <v>6009</v>
@@ -5998,15 +5998,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D74">
         <v>6009</v>
@@ -6040,15 +6040,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D75">
         <v>6009</v>
@@ -6082,15 +6082,15 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D76">
         <v>6009</v>
@@ -6136,15 +6136,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D77">
         <v>6009</v>
@@ -6190,15 +6190,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D78">
         <v>6009</v>
@@ -6244,15 +6244,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D79">
         <v>6009</v>
@@ -6295,15 +6295,15 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D80">
         <v>6009</v>
@@ -6340,15 +6340,15 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D81">
         <v>6009</v>
@@ -6385,15 +6385,15 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C82" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D82">
         <v>6009</v>
@@ -6439,15 +6439,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C83" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D83">
         <v>6009</v>
@@ -6493,15 +6493,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D84">
         <v>6009</v>
@@ -6538,15 +6538,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D85">
         <v>6009</v>
@@ -6592,15 +6592,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D86">
         <v>6009</v>
@@ -6637,7 +6637,7 @@
         <v>1970</v>
       </c>
       <c r="O86" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P86" s="2">
         <v>39965</v>
@@ -6646,15 +6646,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D87">
         <v>6009</v>
@@ -6700,15 +6700,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D88">
         <v>6009</v>
@@ -6748,15 +6748,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D89">
         <v>6009</v>
@@ -6796,15 +6796,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D90">
         <v>6009</v>
@@ -6844,15 +6844,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D91">
         <v>6009</v>
@@ -6868,7 +6868,7 @@
         <v>43009</v>
       </c>
       <c r="H91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -6880,15 +6880,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D92">
         <v>6009</v>
@@ -6925,15 +6925,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C93" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D93">
         <v>6009</v>
@@ -6979,15 +6979,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D94">
         <v>6009</v>
@@ -7033,15 +7033,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C95" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D95">
         <v>6009</v>
@@ -7081,15 +7081,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C96" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D96">
         <v>6009</v>
@@ -7132,15 +7132,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>184</v>
       </c>
       <c r="B97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C97" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D97">
         <v>6009</v>
@@ -7186,15 +7186,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C98" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D98">
         <v>6009</v>
@@ -7234,15 +7234,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>186</v>
       </c>
       <c r="B99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D99">
         <v>6009</v>
@@ -7285,15 +7285,15 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>188</v>
       </c>
       <c r="B100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D100">
         <v>6009</v>
@@ -7339,15 +7339,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>189</v>
       </c>
       <c r="B101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C101" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D101">
         <v>6009</v>
@@ -7381,15 +7381,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C102" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D102">
         <v>6009</v>
@@ -7426,7 +7426,7 @@
         <v>1999</v>
       </c>
       <c r="O102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P102" s="2">
         <v>42530</v>
@@ -7435,15 +7435,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C103" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D103">
         <v>6009</v>
@@ -7489,15 +7489,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C104" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D104">
         <v>6009</v>
@@ -7543,15 +7543,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D105">
         <v>6009</v>
@@ -7594,15 +7594,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>200</v>
       </c>
       <c r="B106" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C106" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D106">
         <v>6009</v>
@@ -7648,15 +7648,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D107">
         <v>6009</v>
@@ -7702,15 +7702,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D108">
         <v>6009</v>
@@ -7750,15 +7750,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C109" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D109">
         <v>6009</v>
@@ -7804,15 +7804,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C110" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D110">
         <v>6009</v>
@@ -7852,15 +7852,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C111" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D111">
         <v>6009</v>
@@ -7897,7 +7897,7 @@
         <v>1990</v>
       </c>
       <c r="O111" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P111" s="2">
         <v>42712</v>
@@ -7906,15 +7906,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>211</v>
       </c>
       <c r="B112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C112" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D112">
         <v>6009</v>
@@ -7954,15 +7954,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>213</v>
       </c>
       <c r="B113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D113">
         <v>6009</v>
@@ -8008,15 +8008,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C114" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D114">
         <v>6009</v>
@@ -8062,15 +8062,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>218</v>
       </c>
       <c r="B115" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D115">
         <v>6009</v>
@@ -8116,15 +8116,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D116">
         <v>6009</v>
@@ -8161,7 +8161,7 @@
         <v>1981</v>
       </c>
       <c r="O116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P116" s="2">
         <v>42234</v>
@@ -8170,15 +8170,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>220</v>
       </c>
       <c r="B117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C117" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D117">
         <v>6009</v>
@@ -8224,15 +8224,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D118">
         <v>6009</v>
@@ -8269,7 +8269,7 @@
         <v>1964</v>
       </c>
       <c r="O118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P118" s="2">
         <v>41357</v>
@@ -8278,15 +8278,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C119" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D119">
         <v>6009</v>
@@ -8332,15 +8332,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D120">
         <v>6009</v>
@@ -8386,15 +8386,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>228</v>
       </c>
       <c r="B121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C121" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D121">
         <v>6009</v>
@@ -8440,15 +8440,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>230</v>
       </c>
       <c r="B122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D122">
         <v>6009</v>
@@ -8485,15 +8485,15 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C123" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D123">
         <v>6009</v>
@@ -8533,15 +8533,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D124">
         <v>6009</v>
@@ -8581,15 +8581,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C125" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D125">
         <v>6009</v>
@@ -8629,15 +8629,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D126">
         <v>6009</v>
@@ -8683,15 +8683,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>237</v>
       </c>
       <c r="B127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D127">
         <v>6009</v>
@@ -8728,15 +8728,15 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C128" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D128">
         <v>6009</v>
@@ -8782,15 +8782,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C129" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D129">
         <v>6009</v>
@@ -8836,15 +8836,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>241</v>
       </c>
       <c r="B130" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D130">
         <v>6009</v>
@@ -8884,15 +8884,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C131" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D131">
         <v>6009</v>
@@ -8938,15 +8938,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C132" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D132">
         <v>6009</v>
@@ -8992,15 +8992,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>244</v>
       </c>
       <c r="B133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C133" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D133">
         <v>6009</v>
@@ -9046,15 +9046,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>246</v>
       </c>
       <c r="B134" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C134" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D134">
         <v>6009</v>
@@ -9094,15 +9094,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C135" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D135">
         <v>6009</v>
@@ -9148,15 +9148,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C136" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D136">
         <v>6009</v>
@@ -9202,15 +9202,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>251</v>
       </c>
       <c r="B137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C137" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D137">
         <v>6009</v>
@@ -9247,15 +9247,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>252</v>
       </c>
       <c r="B138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D138">
         <v>6009</v>
@@ -9295,15 +9295,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>253</v>
       </c>
       <c r="B139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C139" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D139">
         <v>6009</v>
@@ -9340,7 +9340,7 @@
         <v>1963</v>
       </c>
       <c r="O139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P139" s="2">
         <v>44349</v>
@@ -9349,15 +9349,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C140" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D140">
         <v>6009</v>
@@ -9394,21 +9394,21 @@
         <v>1963</v>
       </c>
       <c r="O140" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P140" s="2">
         <v>44349</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>255</v>
       </c>
       <c r="B141" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C141" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D141">
         <v>6009</v>
@@ -9454,15 +9454,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C142" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D142">
         <v>6009</v>
@@ -9505,15 +9505,15 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C143" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D143">
         <v>6009</v>
@@ -9556,15 +9556,15 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>259</v>
       </c>
       <c r="B144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D144">
         <v>6009</v>
@@ -9607,15 +9607,15 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C145" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D145">
         <v>6009</v>
@@ -9661,15 +9661,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>262</v>
       </c>
       <c r="B146" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C146" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D146">
         <v>6009</v>
@@ -9706,15 +9706,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C147" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D147">
         <v>6009</v>
@@ -9760,15 +9760,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C148" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D148">
         <v>6009</v>
@@ -9808,15 +9808,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C149" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D149">
         <v>6009</v>
@@ -9856,15 +9856,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C150" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D150">
         <v>6009</v>
@@ -9904,15 +9904,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>269</v>
       </c>
       <c r="B151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C151" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D151">
         <v>6009</v>
@@ -9943,15 +9943,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>271</v>
       </c>
       <c r="B152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D152">
         <v>6009</v>
@@ -9982,15 +9982,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D153">
         <v>6009</v>
@@ -10033,15 +10033,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>275</v>
       </c>
       <c r="B154" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C154" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D154">
         <v>6009</v>
@@ -10084,15 +10084,15 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C155" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D155">
         <v>6009</v>
@@ -10138,15 +10138,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D156">
         <v>6009</v>
@@ -10192,15 +10192,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C157" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D157">
         <v>6009</v>
@@ -10246,15 +10246,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C158" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D158">
         <v>6009</v>
@@ -10294,15 +10294,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>280</v>
       </c>
       <c r="B159" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C159" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D159">
         <v>6009</v>
@@ -10345,15 +10345,15 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C160" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D160">
         <v>6009</v>
@@ -10390,15 +10390,15 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>282</v>
       </c>
       <c r="B161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C161" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D161">
         <v>6009</v>
@@ -10441,15 +10441,15 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D162">
         <v>6009</v>
@@ -10495,15 +10495,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D163">
         <v>6009</v>
@@ -10519,15 +10519,15 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C164" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D164">
         <v>6009</v>
@@ -10570,15 +10570,15 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C165" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D165">
         <v>6009</v>
@@ -10615,15 +10615,15 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>287</v>
       </c>
       <c r="B166" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D166">
         <v>6009</v>
@@ -10663,15 +10663,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>288</v>
       </c>
       <c r="B167" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D167">
         <v>6009</v>
@@ -10705,15 +10705,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C168" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D168">
         <v>6009</v>
@@ -10756,15 +10756,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>291</v>
       </c>
       <c r="B169" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D169">
         <v>6009</v>
@@ -10810,15 +10810,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>292</v>
       </c>
       <c r="B170" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C170" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D170">
         <v>6009</v>
@@ -10864,15 +10864,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>295</v>
       </c>
       <c r="B171" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C171" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D171">
         <v>6009</v>
@@ -10918,15 +10918,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>298</v>
       </c>
       <c r="B172" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C172" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D172">
         <v>6009</v>
@@ -10972,15 +10972,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>299</v>
       </c>
       <c r="B173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C173" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D173">
         <v>6009</v>
@@ -11023,15 +11023,15 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>300</v>
       </c>
       <c r="B174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C174" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D174">
         <v>6009</v>
@@ -11074,15 +11074,15 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>301</v>
       </c>
       <c r="B175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C175" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D175">
         <v>6009</v>
@@ -11128,15 +11128,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>302</v>
       </c>
       <c r="B176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C176" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D176">
         <v>6009</v>
@@ -11170,15 +11170,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>303</v>
       </c>
       <c r="B177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C177" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D177">
         <v>6009</v>
@@ -11215,15 +11215,15 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>304</v>
       </c>
       <c r="B178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C178" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D178">
         <v>6009</v>
@@ -11263,15 +11263,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>307</v>
       </c>
       <c r="B179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D179">
         <v>6009</v>
@@ -11311,15 +11311,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>309</v>
       </c>
       <c r="B180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D180">
         <v>6009</v>
@@ -11356,21 +11356,21 @@
         <v>1968</v>
       </c>
       <c r="O180" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P180" s="2">
         <v>42578</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>310</v>
       </c>
       <c r="B181" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D181">
         <v>6009</v>
@@ -11413,15 +11413,15 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C182" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D182">
         <v>6009</v>
@@ -11452,15 +11452,15 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C183" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D183">
         <v>6009</v>
@@ -11488,21 +11488,21 @@
         <v>44</v>
       </c>
       <c r="O183" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P183" s="2">
         <v>43378</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>313</v>
       </c>
       <c r="B184" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C184" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D184">
         <v>6009</v>
@@ -11548,15 +11548,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>314</v>
       </c>
       <c r="B185" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C185" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D185">
         <v>6009</v>
@@ -11602,15 +11602,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>316</v>
       </c>
       <c r="B186" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C186" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D186">
         <v>6009</v>
@@ -11653,15 +11653,15 @@
         <v>37037</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>317</v>
       </c>
       <c r="B187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C187" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D187">
         <v>6009</v>
@@ -11698,15 +11698,15 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>318</v>
       </c>
       <c r="B188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C188" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D188">
         <v>6009</v>
@@ -11752,15 +11752,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>319</v>
       </c>
       <c r="B189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C189" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D189">
         <v>6009</v>
@@ -11797,15 +11797,15 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>320</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D190">
         <v>6009</v>
@@ -11842,7 +11842,7 @@
         <v>1975</v>
       </c>
       <c r="O190" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P190" s="2">
         <v>41825</v>
@@ -11851,15 +11851,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>321</v>
       </c>
       <c r="B191" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C191" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D191">
         <v>6009</v>
@@ -11896,21 +11896,21 @@
         <v>1975</v>
       </c>
       <c r="O191" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P191" s="2">
         <v>41825</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>322</v>
       </c>
       <c r="B192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C192" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D192">
         <v>6009</v>
@@ -11953,15 +11953,15 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>323</v>
       </c>
       <c r="B193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C193" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D193">
         <v>6009</v>
@@ -12007,15 +12007,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>324</v>
       </c>
       <c r="B194" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C194" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D194">
         <v>6009</v>
@@ -12058,15 +12058,15 @@
         <v>38885</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>325</v>
       </c>
       <c r="B195" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C195" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D195">
         <v>6009</v>
@@ -12112,15 +12112,15 @@
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>328</v>
       </c>
       <c r="B196" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D196">
         <v>6009</v>
@@ -12157,15 +12157,15 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>330</v>
       </c>
       <c r="B197" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C197" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D197">
         <v>6009</v>
@@ -12211,15 +12211,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>332</v>
       </c>
       <c r="B198" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D198">
         <v>6009</v>
@@ -12256,15 +12256,15 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>333</v>
       </c>
       <c r="B199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C199" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D199">
         <v>6009</v>
@@ -12310,15 +12310,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>334</v>
       </c>
       <c r="B200" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C200" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D200">
         <v>6009</v>
@@ -12364,15 +12364,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>335</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C201" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D201">
         <v>6009</v>
@@ -12418,15 +12418,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>336</v>
       </c>
       <c r="B202" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C202" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D202">
         <v>6009</v>
@@ -12469,15 +12469,15 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>337</v>
       </c>
       <c r="B203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D203">
         <v>6009</v>
@@ -12523,15 +12523,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>338</v>
       </c>
       <c r="B204" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C204" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D204">
         <v>6009</v>
@@ -12571,15 +12571,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>340</v>
       </c>
       <c r="B205" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C205" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D205">
         <v>6009</v>
@@ -12622,15 +12622,15 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>341</v>
       </c>
       <c r="B206" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C206" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D206">
         <v>6009</v>
@@ -12670,15 +12670,15 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>344</v>
       </c>
       <c r="B207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C207" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D207">
         <v>6009</v>
@@ -12715,15 +12715,15 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>345</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C208" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D208">
         <v>6009</v>
@@ -12763,15 +12763,15 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>347</v>
       </c>
       <c r="B209" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C209" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D209">
         <v>6009</v>
@@ -12811,15 +12811,15 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>348</v>
       </c>
       <c r="B210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C210" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D210">
         <v>6009</v>
@@ -12865,15 +12865,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>350</v>
       </c>
       <c r="B211" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C211" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D211">
         <v>6009</v>
@@ -12919,15 +12919,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D212">
         <v>6009</v>
@@ -12973,15 +12973,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>351</v>
       </c>
       <c r="B213" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C213" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D213">
         <v>6009</v>
@@ -13021,15 +13021,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>353</v>
       </c>
       <c r="B214" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C214" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D214">
         <v>6009</v>
@@ -13075,15 +13075,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>354</v>
       </c>
       <c r="B215" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C215" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D215">
         <v>6009</v>
@@ -13129,15 +13129,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>355</v>
       </c>
       <c r="B216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C216" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D216">
         <v>6009</v>
@@ -13177,15 +13177,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>357</v>
       </c>
       <c r="B217" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C217" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D217">
         <v>6009</v>
@@ -13225,15 +13225,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>358</v>
       </c>
       <c r="B218" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C218" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D218">
         <v>6009</v>
@@ -13276,15 +13276,15 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>359</v>
       </c>
       <c r="B219" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D219">
         <v>6009</v>
@@ -13330,15 +13330,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>361</v>
       </c>
       <c r="B220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C220" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D220">
         <v>6009</v>
@@ -13378,15 +13378,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>362</v>
       </c>
       <c r="B221" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C221" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D221">
         <v>6009</v>
@@ -13426,15 +13426,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>363</v>
       </c>
       <c r="B222" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C222" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D222">
         <v>6009</v>
@@ -13480,15 +13480,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>365</v>
       </c>
       <c r="B223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C223" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D223">
         <v>6009</v>
@@ -13534,15 +13534,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>366</v>
       </c>
       <c r="B224" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D224">
         <v>6009</v>
@@ -13588,15 +13588,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>367</v>
       </c>
       <c r="B225" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D225">
         <v>6009</v>
@@ -13642,15 +13642,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>369</v>
       </c>
       <c r="B226" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C226" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D226">
         <v>6009</v>
@@ -13696,15 +13696,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>371</v>
       </c>
       <c r="B227" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C227" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D227">
         <v>6009</v>
@@ -13750,15 +13750,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>372</v>
       </c>
       <c r="B228" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C228" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D228">
         <v>6009</v>
@@ -13804,15 +13804,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>373</v>
       </c>
       <c r="B229" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C229" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D229">
         <v>6009</v>
@@ -13849,15 +13849,15 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>374</v>
       </c>
       <c r="B230" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C230" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D230">
         <v>6009</v>
@@ -13903,15 +13903,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>375</v>
       </c>
       <c r="B231" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C231" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D231">
         <v>6009</v>
@@ -13957,15 +13957,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>376</v>
       </c>
       <c r="B232" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C232" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D232">
         <v>6009</v>
@@ -14011,15 +14011,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>378</v>
       </c>
       <c r="B233" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C233" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D233">
         <v>6009</v>
@@ -14065,15 +14065,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>379</v>
       </c>
       <c r="B234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C234" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D234">
         <v>6009</v>
@@ -14110,7 +14110,7 @@
         <v>1972</v>
       </c>
       <c r="O234" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P234" s="2">
         <v>41396</v>
@@ -14119,15 +14119,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>380</v>
       </c>
       <c r="B235" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C235" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D235">
         <v>6009</v>
@@ -14173,15 +14173,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>381</v>
       </c>
       <c r="B236" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C236" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D236">
         <v>6009</v>
@@ -14221,15 +14221,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>382</v>
       </c>
       <c r="B237" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D237">
         <v>6009</v>
@@ -14269,15 +14269,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>383</v>
       </c>
       <c r="B238" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D238">
         <v>6009</v>
@@ -14317,15 +14317,15 @@
         <v>384</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>385</v>
       </c>
       <c r="B239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D239">
         <v>6009</v>
@@ -14371,15 +14371,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>386</v>
       </c>
       <c r="B240" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C240" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D240">
         <v>6009</v>
@@ -14425,15 +14425,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>387</v>
       </c>
       <c r="B241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C241" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D241">
         <v>6009</v>
@@ -14479,15 +14479,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>388</v>
       </c>
       <c r="B242" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C242" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D242">
         <v>6009</v>
@@ -14530,15 +14530,15 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>389</v>
       </c>
       <c r="B243" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C243" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D243">
         <v>6009</v>
@@ -14581,15 +14581,15 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>390</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D244">
         <v>6009</v>
@@ -14635,15 +14635,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>391</v>
       </c>
       <c r="B245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C245" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D245">
         <v>6009</v>
@@ -14686,15 +14686,15 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>392</v>
       </c>
       <c r="B246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D246">
         <v>6009</v>
@@ -14731,15 +14731,15 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>393</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D247">
         <v>6009</v>
@@ -14785,15 +14785,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>394</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C248" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D248">
         <v>6009</v>
@@ -14836,15 +14836,15 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>395</v>
       </c>
       <c r="B249" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C249" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D249">
         <v>6009</v>
@@ -14884,15 +14884,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>396</v>
       </c>
       <c r="B250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C250" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D250">
         <v>6009</v>
@@ -14935,15 +14935,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>398</v>
       </c>
       <c r="B251" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D251">
         <v>6009</v>
@@ -14989,15 +14989,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>399</v>
       </c>
       <c r="B252" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C252" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D252">
         <v>6009</v>
@@ -15037,15 +15037,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>401</v>
       </c>
       <c r="B253" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C253" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D253">
         <v>6009</v>
@@ -15082,15 +15082,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>402</v>
       </c>
       <c r="B254" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D254">
         <v>6009</v>
@@ -15127,15 +15127,15 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>403</v>
       </c>
       <c r="B255" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D255">
         <v>6009</v>
@@ -15175,15 +15175,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>404</v>
       </c>
       <c r="B256" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D256">
         <v>6009</v>
@@ -15229,15 +15229,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>406</v>
       </c>
       <c r="B257" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D257">
         <v>6009</v>
@@ -15283,15 +15283,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>407</v>
       </c>
       <c r="B258" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C258" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D258">
         <v>6009</v>
@@ -15337,15 +15337,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>409</v>
       </c>
       <c r="B259" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C259" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D259">
         <v>6009</v>
@@ -15385,15 +15385,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>412</v>
       </c>
       <c r="B260" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C260" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D260">
         <v>6009</v>
@@ -15439,15 +15439,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>414</v>
       </c>
       <c r="B261" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C261" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D261">
         <v>6009</v>
@@ -15490,15 +15490,15 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>416</v>
       </c>
       <c r="B262" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C262" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D262">
         <v>6009</v>
@@ -15529,15 +15529,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>417</v>
       </c>
       <c r="B263" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C263" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D263">
         <v>6009</v>
@@ -15580,15 +15580,15 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>418</v>
       </c>
       <c r="B264" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C264" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D264">
         <v>6009</v>
@@ -15631,15 +15631,15 @@
         <v>39873</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>420</v>
       </c>
       <c r="B265" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C265" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D265">
         <v>6009</v>
@@ -15685,15 +15685,15 @@
         <v>421</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>422</v>
       </c>
       <c r="B266" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D266">
         <v>6009</v>
@@ -15736,15 +15736,15 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>423</v>
       </c>
       <c r="B267" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C267" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D267">
         <v>6009</v>
@@ -15790,15 +15790,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>424</v>
       </c>
       <c r="B268" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C268" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D268">
         <v>6009</v>
@@ -15844,15 +15844,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>425</v>
       </c>
       <c r="B269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C269" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D269">
         <v>6009</v>
@@ -15895,15 +15895,15 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>426</v>
       </c>
       <c r="B270" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C270" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D270">
         <v>6009</v>
@@ -15949,15 +15949,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>427</v>
       </c>
       <c r="B271" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C271" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D271">
         <v>6009</v>
@@ -16000,15 +16000,15 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>428</v>
       </c>
       <c r="B272" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C272" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D272">
         <v>6009</v>
@@ -16054,15 +16054,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>429</v>
       </c>
       <c r="B273" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C273" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D273">
         <v>6009</v>
@@ -16108,15 +16108,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>431</v>
       </c>
       <c r="B274" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C274" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D274">
         <v>6009</v>
@@ -16153,21 +16153,21 @@
         <v>1981</v>
       </c>
       <c r="O274" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P274" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>432</v>
       </c>
       <c r="B275" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C275" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D275">
         <v>6009</v>
@@ -16207,15 +16207,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>434</v>
       </c>
       <c r="B276" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C276" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D276">
         <v>6009</v>
@@ -16258,15 +16258,15 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>435</v>
       </c>
       <c r="B277" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C277" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D277">
         <v>6009</v>
@@ -16306,15 +16306,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>436</v>
       </c>
       <c r="B278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C278" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D278">
         <v>6009</v>
@@ -16360,15 +16360,15 @@
         <v>437</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>438</v>
       </c>
       <c r="B279" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C279" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D279">
         <v>6009</v>
@@ -16405,15 +16405,15 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>439</v>
       </c>
       <c r="B280" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C280" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D280">
         <v>6009</v>
@@ -16459,15 +16459,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>440</v>
       </c>
       <c r="B281" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C281" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D281">
         <v>6009</v>
@@ -16507,15 +16507,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>442</v>
       </c>
       <c r="B282" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C282" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D282">
         <v>6009</v>
@@ -16552,15 +16552,15 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>443</v>
       </c>
       <c r="B283" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C283" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D283">
         <v>6009</v>
@@ -16606,15 +16606,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>444</v>
       </c>
       <c r="B284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C284" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D284">
         <v>6009</v>
@@ -16654,15 +16654,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>445</v>
       </c>
       <c r="B285" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C285" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D285">
         <v>6009</v>
@@ -16708,15 +16708,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>446</v>
       </c>
       <c r="B286" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C286" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D286">
         <v>6009</v>
@@ -16759,15 +16759,15 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>447</v>
       </c>
       <c r="B287" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C287" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D287">
         <v>6009</v>
@@ -16804,15 +16804,15 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>448</v>
       </c>
       <c r="B288" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C288" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D288">
         <v>6009</v>
@@ -16849,15 +16849,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>449</v>
       </c>
       <c r="B289" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C289" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D289">
         <v>6009</v>
@@ -16894,7 +16894,7 @@
         <v>1977</v>
       </c>
       <c r="O289" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P289" s="2">
         <v>43132</v>
@@ -16903,15 +16903,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>450</v>
       </c>
       <c r="B290" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C290" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D290">
         <v>6009</v>
@@ -16954,15 +16954,15 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>451</v>
       </c>
       <c r="B291" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C291" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D291">
         <v>6009</v>
@@ -17008,15 +17008,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>452</v>
       </c>
       <c r="B292" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C292" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D292">
         <v>6009</v>
@@ -17062,15 +17062,15 @@
         <v>453</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>454</v>
       </c>
       <c r="B293" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C293" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D293">
         <v>6009</v>
@@ -17116,15 +17116,15 @@
         <v>455</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>440</v>
       </c>
       <c r="B294" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C294" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D294">
         <v>6009</v>
@@ -17161,15 +17161,15 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>456</v>
       </c>
       <c r="B295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C295" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D295">
         <v>6009</v>
@@ -17215,15 +17215,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>457</v>
       </c>
       <c r="B296" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C296" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D296">
         <v>6009</v>
@@ -17260,15 +17260,15 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>458</v>
       </c>
       <c r="B297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C297" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D297">
         <v>6009</v>
@@ -17314,15 +17314,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>459</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C298" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D298">
         <v>6009</v>
@@ -17365,15 +17365,15 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>460</v>
       </c>
       <c r="B299" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C299" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D299">
         <v>6009</v>
@@ -17419,15 +17419,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>461</v>
       </c>
       <c r="B300" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C300" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D300">
         <v>6009</v>
@@ -17473,15 +17473,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>462</v>
       </c>
       <c r="B301" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C301" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D301">
         <v>6009</v>

--- a/data/crawley_suburb_properties.xlsx
+++ b/data/crawley_suburb_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluec\DataHomework\Project3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386E859-DF90-4BC6-8355-C2496E2820C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9A99A-5752-4DEA-8E7F-07DA0E4B0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-8940" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5280" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crawley_suburb_properties" sheetId="1" r:id="rId1"/>
@@ -2350,23 +2350,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>194</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>197</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>198</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>202</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>220</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>226</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>231</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>233</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>234</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>237</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>238</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>241</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>242</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>243</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>244</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>246</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>247</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>254</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>255</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>259</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>260</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>262</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>265</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>269</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>271</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>272</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>275</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>276</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>277</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>278</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>279</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>280</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>281</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>283</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>284</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>285</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>286</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>287</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>289</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>291</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>292</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>295</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>298</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>299</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>300</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>301</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>302</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>303</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>304</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>307</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>309</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>42578</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>310</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>311</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>312</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>313</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>314</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>37037</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>317</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>319</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>320</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>321</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>322</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>323</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>324</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>38885</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>325</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>328</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>330</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>332</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>333</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>334</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>335</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>336</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>337</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>338</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>340</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>341</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>344</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>345</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>347</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>348</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>350</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>479</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>351</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>353</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>354</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>355</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>358</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>359</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>361</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>362</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>363</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>365</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>366</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>367</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>369</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>371</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>372</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>373</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>374</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>375</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>376</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>378</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>379</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>380</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>381</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>382</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>383</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>385</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>386</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>387</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>388</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>389</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>390</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>391</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>392</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>393</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>394</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>395</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>396</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>398</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>399</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>401</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>402</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>403</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>404</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>406</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>407</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>409</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>412</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>414</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>416</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>417</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>418</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>39873</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>420</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>422</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>423</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>424</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>425</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>426</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>427</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>428</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>429</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>431</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>432</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>434</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>435</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>438</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>439</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>440</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>442</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>443</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>444</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>445</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>446</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>447</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>448</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>449</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>450</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>451</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>452</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>454</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>440</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>456</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>457</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>458</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>459</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>460</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>461</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>462</v>
       </c>
